--- a/plant_health/plant_health_train.xlsx
+++ b/plant_health/plant_health_train.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Decission_Tree\plant_health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F09FE7-D95C-45A5-BAB9-C578E6F9DC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7599579E-708C-45AE-804E-6837BAF0062F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="510" windowWidth="24920" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19500" yWindow="510" windowWidth="18620" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>deepGreenOldLeaves</t>
   </si>
   <si>
-    <t>Phosphurus_Deficiency</t>
-  </si>
-  <si>
     <t>Potassium_Deficiency</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Molybdenum_Deficiency</t>
+  </si>
+  <si>
+    <t>Phosphorus_Deficiency</t>
   </si>
 </sst>
 </file>
@@ -461,9 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D227" sqref="D227"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2192,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="X23" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
@@ -2266,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="X24" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
@@ -2340,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="X25" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
@@ -2414,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="X26" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
@@ -2488,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="X27" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
@@ -2562,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="X28" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
@@ -2636,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="X29" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
@@ -2710,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="X30" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
@@ -2784,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2858,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.35">
@@ -2932,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3006,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.35">
@@ -3080,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3154,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.35">
@@ -3228,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3302,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.35">
@@ -3376,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3450,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.35">
@@ -3524,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3598,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.35">
@@ -3672,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.35">
@@ -3746,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.35">
@@ -3820,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.35">
@@ -3894,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.35">
@@ -3968,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4042,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.35">
@@ -4116,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4190,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.35">
@@ -4264,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4338,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.35">
@@ -4412,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4486,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.35">
@@ -4560,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4634,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.35">
@@ -4708,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4782,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.35">
@@ -4856,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.35">
@@ -4930,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.35">
@@ -5004,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.35">
@@ -5078,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.35">
@@ -5152,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.35">
@@ -5226,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="X64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.35">
@@ -5300,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="X65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.35">
@@ -5374,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.35">
@@ -5448,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.35">
@@ -5522,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.35">
@@ -5596,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.35">
@@ -5670,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.35">
@@ -5744,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.35">
@@ -5818,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.35">
@@ -5892,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="X73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.35">
@@ -5966,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="X74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.35">
@@ -6040,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="X75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.35">
@@ -6114,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="X76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.35">
@@ -6188,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="X77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.35">
@@ -6262,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="X78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.35">
@@ -6336,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="X79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.35">
@@ -6410,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="X80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.35">
@@ -6484,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="X81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.35">
@@ -6558,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="X82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.35">
@@ -6632,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="X83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.35">
@@ -6706,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="X84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.35">
@@ -6780,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="X85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.35">
@@ -6854,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="X86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.35">
@@ -6928,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="X87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.35">
@@ -7002,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="X88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.35">
@@ -7076,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="X89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.35">
@@ -7150,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="X90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.35">
@@ -7224,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="X91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.35">
@@ -7298,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="X92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.35">
@@ -7372,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="X93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.35">
@@ -7446,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="X94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.35">
@@ -7520,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="X95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.35">
@@ -7594,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="X96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.35">
@@ -7668,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="X97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.35">
@@ -7742,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="X98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.35">
@@ -7816,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="X99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.35">
@@ -7890,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="X100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.35">
@@ -7964,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="X101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.35">
@@ -8038,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="X102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.35">
@@ -8112,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="X103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.35">
@@ -8186,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="X104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.35">
@@ -8260,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="X105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.35">
@@ -8334,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="X106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.35">
@@ -8408,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="X107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.35">
@@ -8482,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="X108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.35">
@@ -8556,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="X109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.35">
@@ -8630,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="X110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.35">
@@ -8704,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="X111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.35">
@@ -8778,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="X112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.35">
@@ -8852,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="X113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.35">
@@ -8926,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="X114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.35">
@@ -9000,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="X115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.35">
@@ -9074,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="X116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.35">
@@ -9148,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="X117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.35">
@@ -9222,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="X118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.35">
@@ -9296,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="X119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.35">
@@ -9370,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="X120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.35">
@@ -9444,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="X121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.35">
@@ -9518,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="X122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.35">
@@ -9592,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="X123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.35">
@@ -9666,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="X124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.35">
@@ -9740,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="X125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.35">
@@ -9814,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="X126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.35">
@@ -9888,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="X127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.35">
@@ -9962,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="X128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.35">
@@ -10036,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="X129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.35">
@@ -10110,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="X130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.35">
@@ -10184,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="X131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.35">
@@ -10258,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="X132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.35">
@@ -10332,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="X133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.35">
@@ -10406,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="X134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.35">
@@ -10480,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="X135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.35">
@@ -10554,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="X136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.35">
@@ -10628,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="X137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.35">
@@ -10702,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="X138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.35">
@@ -10776,7 +10774,7 @@
         <v>0</v>
       </c>
       <c r="X139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.35">
@@ -10850,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="X140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.35">
@@ -10924,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="X141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.35">
@@ -10998,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="X142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.35">
@@ -11072,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="X143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.35">
@@ -11146,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="X144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.35">
@@ -11220,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="X145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.35">
@@ -11294,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="X146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.35">
@@ -11368,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="X147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.35">
@@ -11442,7 +11440,7 @@
         <v>0</v>
       </c>
       <c r="X148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.35">
@@ -11516,7 +11514,7 @@
         <v>0</v>
       </c>
       <c r="X149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.35">
@@ -11590,7 +11588,7 @@
         <v>0</v>
       </c>
       <c r="X150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.35">
@@ -11664,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="X151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.35">
@@ -11738,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="X152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.35">
@@ -11812,7 +11810,7 @@
         <v>0</v>
       </c>
       <c r="X153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.35">
@@ -11886,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="X154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.35">
@@ -11960,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="X155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.35">
@@ -12034,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="X156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.35">
@@ -12108,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="X157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.35">
@@ -12182,7 +12180,7 @@
         <v>0</v>
       </c>
       <c r="X158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.35">
@@ -12256,7 +12254,7 @@
         <v>0</v>
       </c>
       <c r="X159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.35">
@@ -12330,7 +12328,7 @@
         <v>0</v>
       </c>
       <c r="X160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.35">
@@ -12404,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="X161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.35">
@@ -12478,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="X162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.35">
@@ -12552,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="X163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.35">
@@ -12626,7 +12624,7 @@
         <v>0</v>
       </c>
       <c r="X164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.35">
@@ -12700,7 +12698,7 @@
         <v>0</v>
       </c>
       <c r="X165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.35">
@@ -12774,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="X166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.35">
@@ -12848,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="X167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.35">
@@ -12922,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="X168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.35">
@@ -12996,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="X169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.35">
@@ -13070,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="X170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.35">
@@ -13144,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="X171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.35">
@@ -13218,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="X172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.35">
@@ -13292,7 +13290,7 @@
         <v>0</v>
       </c>
       <c r="X173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.35">
@@ -13366,7 +13364,7 @@
         <v>0</v>
       </c>
       <c r="X174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.35">
@@ -13440,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="X175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.35">
@@ -13514,7 +13512,7 @@
         <v>0</v>
       </c>
       <c r="X176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.35">
@@ -13588,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="X177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.35">
@@ -13662,7 +13660,7 @@
         <v>0</v>
       </c>
       <c r="X178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.35">
@@ -13736,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="X179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.35">
@@ -13810,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="X180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.35">
@@ -13884,7 +13882,7 @@
         <v>0</v>
       </c>
       <c r="X181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.35">
@@ -13958,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="X182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.35">
@@ -14032,7 +14030,7 @@
         <v>0</v>
       </c>
       <c r="X183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.35">
@@ -14106,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="X184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.35">
@@ -14180,7 +14178,7 @@
         <v>0</v>
       </c>
       <c r="X185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.35">
@@ -14254,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="X186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.35">
@@ -14328,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="X187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.35">
@@ -14402,7 +14400,7 @@
         <v>0</v>
       </c>
       <c r="X188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.35">
@@ -14476,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="X189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.35">
@@ -14550,7 +14548,7 @@
         <v>0</v>
       </c>
       <c r="X190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.35">
@@ -14624,7 +14622,7 @@
         <v>0</v>
       </c>
       <c r="X191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.35">
@@ -14698,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="X192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.35">
@@ -14772,7 +14770,7 @@
         <v>0</v>
       </c>
       <c r="X193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.35">
@@ -14846,7 +14844,7 @@
         <v>0</v>
       </c>
       <c r="X194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.35">
@@ -14920,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="X195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.35">
@@ -14994,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="X196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.35">
@@ -15068,7 +15066,7 @@
         <v>0</v>
       </c>
       <c r="X197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.35">
@@ -15142,7 +15140,7 @@
         <v>0</v>
       </c>
       <c r="X198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.35">
@@ -15216,7 +15214,7 @@
         <v>0</v>
       </c>
       <c r="X199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.35">
@@ -15290,7 +15288,7 @@
         <v>0</v>
       </c>
       <c r="X200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.35">
@@ -15364,7 +15362,7 @@
         <v>0</v>
       </c>
       <c r="X201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.35">
@@ -15438,7 +15436,7 @@
         <v>0</v>
       </c>
       <c r="X202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.35">
@@ -15512,7 +15510,7 @@
         <v>0</v>
       </c>
       <c r="X203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.35">
@@ -15586,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="X204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.35">
@@ -15660,7 +15658,7 @@
         <v>0</v>
       </c>
       <c r="X205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.35">
@@ -15734,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="X206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.35">
@@ -15808,7 +15806,7 @@
         <v>0</v>
       </c>
       <c r="X207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.35">
@@ -15882,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="X208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.35">
@@ -15956,7 +15954,7 @@
         <v>0</v>
       </c>
       <c r="X209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.35">
@@ -16030,7 +16028,7 @@
         <v>0</v>
       </c>
       <c r="X210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.35">
@@ -16104,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="X211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.35">
@@ -16178,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="X212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.35">
@@ -16252,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="X213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.35">
@@ -16326,7 +16324,7 @@
         <v>0</v>
       </c>
       <c r="X214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.35">
@@ -16400,7 +16398,7 @@
         <v>0</v>
       </c>
       <c r="X215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.35">
@@ -16474,7 +16472,7 @@
         <v>0</v>
       </c>
       <c r="X216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.35">
@@ -16548,7 +16546,7 @@
         <v>0</v>
       </c>
       <c r="X217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:24" x14ac:dyDescent="0.35">
@@ -16622,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="X218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="219" spans="1:24" x14ac:dyDescent="0.35">
@@ -16696,7 +16694,7 @@
         <v>0</v>
       </c>
       <c r="X219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="220" spans="1:24" x14ac:dyDescent="0.35">
@@ -16770,7 +16768,7 @@
         <v>0</v>
       </c>
       <c r="X220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="221" spans="1:24" x14ac:dyDescent="0.35">
@@ -16844,7 +16842,7 @@
         <v>0</v>
       </c>
       <c r="X221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:24" x14ac:dyDescent="0.35">
@@ -16918,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="X222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="223" spans="1:24" x14ac:dyDescent="0.35">
@@ -16992,7 +16990,7 @@
         <v>0</v>
       </c>
       <c r="X223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="224" spans="1:24" x14ac:dyDescent="0.35">
@@ -17066,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="X224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="225" spans="1:24" x14ac:dyDescent="0.35">
@@ -17140,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="X225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:24" x14ac:dyDescent="0.35">
@@ -17214,7 +17212,7 @@
         <v>0</v>
       </c>
       <c r="X226" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="227" spans="1:24" x14ac:dyDescent="0.35">
@@ -17288,7 +17286,7 @@
         <v>0</v>
       </c>
       <c r="X227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="228" spans="1:24" x14ac:dyDescent="0.35">
@@ -17362,7 +17360,7 @@
         <v>0</v>
       </c>
       <c r="X228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="229" spans="1:24" x14ac:dyDescent="0.35">
@@ -17436,7 +17434,7 @@
         <v>0</v>
       </c>
       <c r="X229" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:24" x14ac:dyDescent="0.35">
@@ -17510,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="X230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="231" spans="1:24" x14ac:dyDescent="0.35">
@@ -17584,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="X231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="232" spans="1:24" x14ac:dyDescent="0.35">
@@ -17658,7 +17656,7 @@
         <v>0</v>
       </c>
       <c r="X232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="233" spans="1:24" x14ac:dyDescent="0.35">
@@ -17732,7 +17730,7 @@
         <v>0</v>
       </c>
       <c r="X233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="234" spans="1:24" x14ac:dyDescent="0.35">
@@ -17806,7 +17804,7 @@
         <v>0</v>
       </c>
       <c r="X234" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="235" spans="1:24" x14ac:dyDescent="0.35">
@@ -17880,7 +17878,7 @@
         <v>0</v>
       </c>
       <c r="X235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="236" spans="1:24" x14ac:dyDescent="0.35">
@@ -17954,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="X236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="237" spans="1:24" x14ac:dyDescent="0.35">
@@ -18028,7 +18026,7 @@
         <v>0</v>
       </c>
       <c r="X237" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="238" spans="1:24" x14ac:dyDescent="0.35">
@@ -18102,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="X238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="239" spans="1:24" x14ac:dyDescent="0.35">
@@ -18176,7 +18174,7 @@
         <v>0</v>
       </c>
       <c r="X239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="240" spans="1:24" x14ac:dyDescent="0.35">
@@ -18250,7 +18248,7 @@
         <v>0</v>
       </c>
       <c r="X240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="241" spans="1:24" x14ac:dyDescent="0.35">
@@ -18324,7 +18322,7 @@
         <v>0</v>
       </c>
       <c r="X241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.35">
@@ -18398,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="X242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="243" spans="1:24" x14ac:dyDescent="0.35">
@@ -18472,7 +18470,7 @@
         <v>0</v>
       </c>
       <c r="X243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="244" spans="1:24" x14ac:dyDescent="0.35">
@@ -18546,7 +18544,7 @@
         <v>0</v>
       </c>
       <c r="X244" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="245" spans="1:24" x14ac:dyDescent="0.35">
@@ -18620,7 +18618,7 @@
         <v>0</v>
       </c>
       <c r="X245" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="246" spans="1:24" x14ac:dyDescent="0.35">
@@ -18694,7 +18692,7 @@
         <v>0</v>
       </c>
       <c r="X246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="247" spans="1:24" x14ac:dyDescent="0.35">
@@ -18768,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="X247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="248" spans="1:24" x14ac:dyDescent="0.35">
@@ -18842,7 +18840,7 @@
         <v>0</v>
       </c>
       <c r="X248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="249" spans="1:24" x14ac:dyDescent="0.35">
@@ -18916,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="X249" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="250" spans="1:24" x14ac:dyDescent="0.35">
@@ -18990,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="X250" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="251" spans="1:24" x14ac:dyDescent="0.35">
@@ -19064,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="X251" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.35">
@@ -19138,7 +19136,7 @@
         <v>0</v>
       </c>
       <c r="X252" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="253" spans="1:24" x14ac:dyDescent="0.35">
@@ -19212,7 +19210,7 @@
         <v>0</v>
       </c>
       <c r="X253" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="254" spans="1:24" x14ac:dyDescent="0.35">
@@ -19286,7 +19284,7 @@
         <v>0</v>
       </c>
       <c r="X254" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:24" x14ac:dyDescent="0.35">
@@ -19360,7 +19358,7 @@
         <v>0</v>
       </c>
       <c r="X255" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="256" spans="1:24" x14ac:dyDescent="0.35">
@@ -19434,7 +19432,7 @@
         <v>0</v>
       </c>
       <c r="X256" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.35">
@@ -19508,7 +19506,7 @@
         <v>0</v>
       </c>
       <c r="X257" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="258" spans="1:24" x14ac:dyDescent="0.35">
@@ -19582,7 +19580,7 @@
         <v>0</v>
       </c>
       <c r="X258" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="259" spans="1:24" x14ac:dyDescent="0.35">
@@ -19656,7 +19654,7 @@
         <v>0</v>
       </c>
       <c r="X259" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.35">
@@ -19730,7 +19728,7 @@
         <v>0</v>
       </c>
       <c r="X260" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.35">
@@ -19804,7 +19802,7 @@
         <v>0</v>
       </c>
       <c r="X261" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.35">
@@ -19878,7 +19876,7 @@
         <v>0</v>
       </c>
       <c r="X262" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.35">
@@ -19952,7 +19950,7 @@
         <v>0</v>
       </c>
       <c r="X263" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.35">
@@ -20026,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="X264" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="265" spans="1:24" x14ac:dyDescent="0.35">
@@ -20100,7 +20098,7 @@
         <v>0</v>
       </c>
       <c r="X265" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="266" spans="1:24" x14ac:dyDescent="0.35">
@@ -20174,7 +20172,7 @@
         <v>0</v>
       </c>
       <c r="X266" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="267" spans="1:24" x14ac:dyDescent="0.35">
@@ -20248,7 +20246,7 @@
         <v>0</v>
       </c>
       <c r="X267" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.35">
@@ -20322,7 +20320,7 @@
         <v>0</v>
       </c>
       <c r="X268" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.35">
@@ -20396,7 +20394,7 @@
         <v>0</v>
       </c>
       <c r="X269" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="270" spans="1:24" x14ac:dyDescent="0.35">
@@ -20470,7 +20468,7 @@
         <v>0</v>
       </c>
       <c r="X270" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="271" spans="1:24" x14ac:dyDescent="0.35">
@@ -20544,7 +20542,7 @@
         <v>0</v>
       </c>
       <c r="X271" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="272" spans="1:24" x14ac:dyDescent="0.35">
@@ -20618,7 +20616,7 @@
         <v>0</v>
       </c>
       <c r="X272" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="273" spans="1:24" x14ac:dyDescent="0.35">
@@ -20692,7 +20690,7 @@
         <v>0</v>
       </c>
       <c r="X273" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="274" spans="1:24" x14ac:dyDescent="0.35">
@@ -20766,7 +20764,7 @@
         <v>0</v>
       </c>
       <c r="X274" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="275" spans="1:24" x14ac:dyDescent="0.35">
@@ -20840,7 +20838,7 @@
         <v>0</v>
       </c>
       <c r="X275" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="276" spans="1:24" x14ac:dyDescent="0.35">
@@ -20914,7 +20912,7 @@
         <v>0</v>
       </c>
       <c r="X276" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="277" spans="1:24" x14ac:dyDescent="0.35">
@@ -20988,7 +20986,7 @@
         <v>0</v>
       </c>
       <c r="X277" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="278" spans="1:24" x14ac:dyDescent="0.35">
@@ -21062,7 +21060,7 @@
         <v>0</v>
       </c>
       <c r="X278" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="279" spans="1:24" x14ac:dyDescent="0.35">
@@ -21136,7 +21134,7 @@
         <v>0</v>
       </c>
       <c r="X279" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="280" spans="1:24" x14ac:dyDescent="0.35">
@@ -21210,7 +21208,7 @@
         <v>0</v>
       </c>
       <c r="X280" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="281" spans="1:24" x14ac:dyDescent="0.35">
@@ -21284,7 +21282,7 @@
         <v>0</v>
       </c>
       <c r="X281" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="282" spans="1:24" x14ac:dyDescent="0.35">
@@ -21358,7 +21356,7 @@
         <v>0</v>
       </c>
       <c r="X282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="283" spans="1:24" x14ac:dyDescent="0.35">
@@ -21432,7 +21430,7 @@
         <v>0</v>
       </c>
       <c r="X283" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="284" spans="1:24" x14ac:dyDescent="0.35">
@@ -21506,7 +21504,7 @@
         <v>0</v>
       </c>
       <c r="X284" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="285" spans="1:24" x14ac:dyDescent="0.35">
@@ -21580,7 +21578,7 @@
         <v>0</v>
       </c>
       <c r="X285" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="286" spans="1:24" x14ac:dyDescent="0.35">
@@ -21654,7 +21652,7 @@
         <v>0</v>
       </c>
       <c r="X286" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="287" spans="1:24" x14ac:dyDescent="0.35">
@@ -21728,7 +21726,7 @@
         <v>0</v>
       </c>
       <c r="X287" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="288" spans="1:24" x14ac:dyDescent="0.35">
@@ -21802,7 +21800,7 @@
         <v>0</v>
       </c>
       <c r="X288" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="289" spans="1:24" x14ac:dyDescent="0.35">
@@ -21876,7 +21874,7 @@
         <v>0</v>
       </c>
       <c r="X289" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="290" spans="1:24" x14ac:dyDescent="0.35">
@@ -21950,7 +21948,7 @@
         <v>0</v>
       </c>
       <c r="X290" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="291" spans="1:24" x14ac:dyDescent="0.35">
@@ -22024,7 +22022,7 @@
         <v>0</v>
       </c>
       <c r="X291" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="292" spans="1:24" x14ac:dyDescent="0.35">
@@ -22098,7 +22096,7 @@
         <v>0</v>
       </c>
       <c r="X292" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="293" spans="1:24" x14ac:dyDescent="0.35">
@@ -22172,7 +22170,7 @@
         <v>0</v>
       </c>
       <c r="X293" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="294" spans="1:24" x14ac:dyDescent="0.35">
@@ -22246,7 +22244,7 @@
         <v>0</v>
       </c>
       <c r="X294" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="295" spans="1:24" x14ac:dyDescent="0.35">
@@ -22320,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="X295" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="296" spans="1:24" x14ac:dyDescent="0.35">
@@ -22394,10 +22392,11 @@
         <v>0</v>
       </c>
       <c r="X296" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plant_health/plant_health_train.xlsx
+++ b/plant_health/plant_health_train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Decission_Tree\plant_health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7599579E-708C-45AE-804E-6837BAF0062F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C377AE5-B96E-43DF-8E3B-CDCF34050045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19500" yWindow="510" windowWidth="18620" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
